--- a/table3.xlsx
+++ b/table3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reisanar/Google Drive/FL_Poly/research_and_other_publications/icmla_poster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F79F98A-7B37-0840-9D7B-92DE6A4D4914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3B5C25-3793-334A-B223-FFA38073A45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{86068EC1-8937-7B49-B74C-B6C1930AB765}"/>
   </bookViews>
@@ -31,18 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Axes</t>
-  </si>
-  <si>
-    <t>Variance rate</t>
   </si>
   <si>
     <t>Eigenvalue $( \lambda_l )$</t>
   </si>
   <si>
-    <t>Modified rate $( \tau_l )$</t>
+    <t>Modified variance rate $( \tau_l )$</t>
   </si>
 </sst>
 </file>
@@ -395,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4700A00-4FDA-0F42-905C-719E6A58EF42}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,7 +425,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0.24399999999999999</v>
@@ -451,52 +448,29 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8.1000000000000003E-2</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="C3">
-        <v>4.7E-2</v>
+        <v>0.18</v>
       </c>
       <c r="D3">
-        <v>2.9000000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="E3">
-        <v>2.8000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F3">
-        <v>2.3E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G3">
-        <v>2.1000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="C4">
-        <v>0.18</v>
-      </c>
-      <c r="D4">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G4">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
